--- a/respostasalunos.xlsx
+++ b/respostasalunos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cintia\Downloads\laboratorioIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A529DDC-CC1E-4A18-A551-511DCFF6723B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC669092-30F5-4DBF-936C-F10DB1B189E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,15 +62,6 @@
     <t>Turma</t>
   </si>
   <si>
-    <t>Período de Interesse</t>
-  </si>
-  <si>
-    <t>Possui computador em casa para realização das aulas práticas?</t>
-  </si>
-  <si>
-    <t>Qual sua motivação pra realização do curso?</t>
-  </si>
-  <si>
     <t>Novo Tec - Administração(Tarde)</t>
   </si>
   <si>
@@ -285,6 +276,15 @@
   </si>
   <si>
     <t>Adquirir mais conhecimentos na área. E ter um melhor desempenho na na formação</t>
+  </si>
+  <si>
+    <t>interesse</t>
+  </si>
+  <si>
+    <t>computador</t>
+  </si>
+  <si>
+    <t>motivacao</t>
   </si>
 </sst>
 </file>
@@ -548,8 +548,8 @@
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -563,867 +563,867 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
